--- a/new ghatt.xlsx
+++ b/new ghatt.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12_12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FIIIIIIIINAAAAAAL SOFTWARE\software-engineering-2017-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36142007629257555"/>
+          <c:y val="2.7465667915106119E-2"/>
+          <c:w val="0.62771496396412896"/>
+          <c:h val="0.86166465146912818"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -505,7 +515,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,7 +572,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1354,20 +1363,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>130752</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>30307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368876</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>163657</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1650,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
